--- a/2-Empirical-Evidence/raw_data/Connecticut.xlsx
+++ b/2-Empirical-Evidence/raw_data/Connecticut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN090010000000003</t>
@@ -634,10 +650,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>4.5</v>
@@ -732,10 +760,20 @@
       <c r="AF5" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>20922.0</v>
@@ -830,10 +868,20 @@
       <c r="AF6" t="n" s="8">
         <v>37450.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>28793.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>19642.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>18535.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>440480.0</v>
@@ -928,10 +976,20 @@
       <c r="AF7" t="n" s="8">
         <v>429824.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>433514.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>463244.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>460916.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>461402.0</v>
@@ -1026,10 +1084,20 @@
       <c r="AF8" t="n" s="8">
         <v>467274.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>462307.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>482886.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>479451.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>5.0</v>
@@ -1124,10 +1192,20 @@
       <c r="AF9" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>23327.0</v>
@@ -1222,10 +1300,20 @@
       <c r="AF10" t="n" s="8">
         <v>39048.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>31058.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>20073.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>17858.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>446077.0</v>
@@ -1320,10 +1408,20 @@
       <c r="AF11" t="n" s="8">
         <v>437651.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>434149.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>458424.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>455067.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>469404.0</v>
@@ -1418,10 +1516,20 @@
       <c r="AF12" t="n" s="8">
         <v>476699.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>465207.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>478497.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>472925.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>4.6</v>
@@ -1516,10 +1624,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>4659.0</v>
@@ -1614,10 +1732,20 @@
       <c r="AF14" t="n" s="8">
         <v>7071.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>5676.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>3986.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>3542.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>97237.0</v>
@@ -1712,10 +1840,20 @@
       <c r="AF15" t="n" s="8">
         <v>95106.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>95177.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>100839.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>99887.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>101896.0</v>
@@ -1810,10 +1948,20 @@
       <c r="AF16" t="n" s="8">
         <v>102177.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>100853.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>104825.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>103429.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>3.9</v>
@@ -1908,10 +2056,20 @@
       <c r="AF17" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>3300.0</v>
@@ -2006,10 +2164,20 @@
       <c r="AF18" t="n" s="8">
         <v>6066.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>4810.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>3347.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>3007.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>80256.0</v>
@@ -2104,10 +2272,20 @@
       <c r="AF19" t="n" s="8">
         <v>85953.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>85564.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>90628.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>90036.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>83556.0</v>
@@ -2202,10 +2380,20 @@
       <c r="AF20" t="n" s="8">
         <v>92019.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>90374.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>93975.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>93043.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>5.4</v>
@@ -2300,10 +2488,20 @@
       <c r="AF21" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>23665.0</v>
@@ -2398,10 +2596,20 @@
       <c r="AF22" t="n" s="8">
         <v>36821.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>30078.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>19826.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>18087.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>415982.0</v>
@@ -2496,10 +2704,20 @@
       <c r="AF23" t="n" s="8">
         <v>419869.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>420297.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>448259.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>445197.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>439647.0</v>
@@ -2594,10 +2812,20 @@
       <c r="AF24" t="n" s="8">
         <v>456690.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>450375.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>468085.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>463284.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>5.5</v>
@@ -2692,10 +2920,20 @@
       <c r="AF25" t="n" s="10">
         <v>9.7</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>7235.0</v>
@@ -2790,10 +3028,20 @@
       <c r="AF26" t="n" s="8">
         <v>12798.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>8918.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>5559.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>4801.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>123870.0</v>
@@ -2888,10 +3136,20 @@
       <c r="AF27" t="n" s="8">
         <v>119335.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>119592.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>128015.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>127951.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>131105.0</v>
@@ -2986,10 +3244,20 @@
       <c r="AF28" t="n" s="8">
         <v>132133.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>128510.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>133574.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>132752.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>3.9</v>
@@ -3084,10 +3352,20 @@
       <c r="AF29" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>2894.0</v>
@@ -3182,10 +3460,20 @@
       <c r="AF30" t="n" s="8">
         <v>5291.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>4368.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>3196.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>2843.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>71707.0</v>
@@ -3280,10 +3568,20 @@
       <c r="AF31" t="n" s="8">
         <v>79530.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>78861.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>83265.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>82699.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>74601.0</v>
@@ -3378,10 +3676,20 @@
       <c r="AF32" t="n" s="8">
         <v>84821.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>83229.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>86461.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>85542.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>6.9</v>
@@ -3476,10 +3784,20 @@
       <c r="AF33" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>3835.0</v>
@@ -3574,10 +3892,20 @@
       <c r="AF34" t="n" s="8">
         <v>4893.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>3926.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>2712.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>2438.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>51637.0</v>
@@ -3672,10 +4000,20 @@
       <c r="AF35" t="n" s="8">
         <v>57547.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>57388.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>60996.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>60335.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>55472.0</v>
@@ -3770,6 +4108,16 @@
       <c r="AF36" t="n" s="8">
         <v>62440.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>61314.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>63708.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>62773.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3780,7 +4128,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (12:49:31 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:24:38 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
